--- a/20-04_07 world o meter adjusted covid cases by state.xlsx
+++ b/20-04_07 world o meter adjusted covid cases by state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{CB03E0CA-8B06-4156-AC22-CD216B21159C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B0852840-5380-4D26-BA70-4C0EA2F2552D}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{CB03E0CA-8B06-4156-AC22-CD216B21159C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{61A9F091-FD56-4C5F-BEEA-EAE4A53C6A0E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" activeTab="3" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" activeTab="1" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Updates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Updates'!$A$1:$U$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'State to State Work'!$A$1:$C$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'temp for State Deaths'!$A$1:$D$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'US Filtered Data'!$A$1:$J$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'US Filtered Data'!$A$1:$L$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="99">
   <si>
     <t>USA</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of Positive Tests </t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +435,68 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -561,7 +626,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -664,9 +729,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -675,7 +801,19 @@
     <cellStyle name="Normal 2" xfId="4" xr:uid="{49694594-65EB-48DD-99BD-E73D77DED2B9}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4806,23 +4944,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9B5581-99F4-4752-AB5D-E061591DB7E6}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.36328125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="20.90625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="38" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" style="38" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.36328125" style="38" customWidth="1"/>
     <col min="5" max="5" width="14.36328125" style="38" hidden="1" customWidth="1"/>
     <col min="6" max="10" width="14.36328125" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="37"/>
+    <col min="11" max="11" width="8.7265625" style="37"/>
+    <col min="12" max="12" width="10.08984375" style="37" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
@@ -4853,1541 +4997,1820 @@
       <c r="J1" s="36" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2006</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
-        <v>52</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1">
-        <v>1934</v>
-      </c>
-      <c r="G2" s="2">
-        <v>412</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="L1" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="45">
+        <v>1327</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46">
+        <v>51</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46">
+        <v>754</v>
+      </c>
+      <c r="G2" s="46">
+        <v>339</v>
+      </c>
+      <c r="H2" s="46">
+        <v>13</v>
+      </c>
+      <c r="I2" s="45">
+        <v>2751</v>
+      </c>
+      <c r="J2" s="46">
+        <v>702</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48">
+        <f>IFERROR(B2/I2,0)</f>
+        <v>0.48237004725554344</v>
+      </c>
+      <c r="N2" s="43"/>
+    </row>
+    <row r="3" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="45">
+        <v>41090</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="45">
+        <v>1003</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45">
+        <v>39995</v>
+      </c>
+      <c r="G3" s="45">
+        <v>4626</v>
+      </c>
+      <c r="H3" s="46">
+        <v>113</v>
+      </c>
+      <c r="I3" s="45">
+        <v>89032</v>
+      </c>
+      <c r="J3" s="45">
+        <v>10024</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="48">
+        <f>IFERROR(B3/I3,0)</f>
+        <v>0.46151945367957586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="45">
+        <v>131916</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="45">
+        <v>4758</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="45">
+        <v>113792</v>
+      </c>
+      <c r="G4" s="45">
+        <v>6724</v>
+      </c>
+      <c r="H4" s="46">
+        <v>243</v>
+      </c>
+      <c r="I4" s="45">
+        <v>320811</v>
+      </c>
+      <c r="J4" s="45">
+        <v>16353</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48">
+        <f>IFERROR(B4/I4,0)</f>
+        <v>0.41119537671713252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1">
-        <v>14765</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2">
-        <v>191</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2">
-        <v>170</v>
-      </c>
-      <c r="G3" s="2">
-        <v>259</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="B5" s="45">
+        <v>17221</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46">
+        <v>727</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="45">
+        <v>16425</v>
+      </c>
+      <c r="G5" s="45">
+        <v>1729</v>
+      </c>
+      <c r="H5" s="46">
+        <v>73</v>
+      </c>
+      <c r="I5" s="45">
+        <v>45748</v>
+      </c>
+      <c r="J5" s="45">
+        <v>4594</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48">
+        <f>IFERROR(B5/I5,0)</f>
+        <v>0.3764317565795226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="59">
+        <v>6906</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60">
+        <v>206</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="59">
+        <v>6650</v>
+      </c>
+      <c r="G6" s="59">
+        <v>1928</v>
+      </c>
+      <c r="H6" s="60">
+        <v>58</v>
+      </c>
+      <c r="I6" s="59">
+        <v>26686</v>
+      </c>
+      <c r="J6" s="59">
+        <v>7451</v>
+      </c>
+      <c r="K6" s="61"/>
+      <c r="L6" s="62">
+        <f>IFERROR(B6/I6,0)</f>
+        <v>0.25878737915011618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="60">
         <v>8</v>
       </c>
-      <c r="I3" s="1">
-        <v>6284</v>
-      </c>
-      <c r="J3" s="1">
-        <v>8509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60">
+        <v>1</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60">
+        <v>7</v>
+      </c>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60">
         <v>33</v>
       </c>
-      <c r="B4" s="1">
-        <v>2456</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="62">
+        <f>IFERROR(B7/I7,0)</f>
+        <v>0.24242424242424243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="59">
+        <v>7558</v>
+      </c>
+      <c r="C8" s="63">
+        <v>244</v>
+      </c>
+      <c r="D8" s="60">
+        <v>294</v>
+      </c>
+      <c r="E8" s="64">
         <v>65</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1">
-        <v>2371</v>
-      </c>
-      <c r="G4" s="2">
-        <v>354</v>
-      </c>
-      <c r="H4" s="2">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1">
-        <v>32534</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4683</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="2">
-        <v>927</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <v>772</v>
-      </c>
-      <c r="G5" s="2">
-        <v>310</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>13264</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>16363</v>
-      </c>
-      <c r="C6" s="4">
-        <v>344</v>
-      </c>
-      <c r="D6" s="2">
-        <v>387</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1">
-        <v>15076</v>
-      </c>
-      <c r="G6" s="2">
-        <v>418</v>
-      </c>
-      <c r="H6" s="2">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1">
-        <v>129700</v>
-      </c>
-      <c r="J6" s="1">
-        <v>3313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="F8" s="59">
+        <v>7233</v>
+      </c>
+      <c r="G8" s="60">
+        <v>734</v>
+      </c>
+      <c r="H8" s="60">
+        <v>29</v>
+      </c>
+      <c r="I8" s="59">
+        <v>31274</v>
+      </c>
+      <c r="J8" s="59">
+        <v>3037</v>
+      </c>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62">
+        <f>IFERROR(B8/I8,0)</f>
+        <v>0.24167039713500033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="59">
+        <v>14867</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60">
+        <v>512</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="59">
+        <v>14305</v>
+      </c>
+      <c r="G9" s="59">
+        <v>3188</v>
+      </c>
+      <c r="H9" s="60">
+        <v>110</v>
+      </c>
+      <c r="I9" s="59">
+        <v>69166</v>
+      </c>
+      <c r="J9" s="59">
+        <v>14831</v>
+      </c>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62">
+        <f>IFERROR(B9/I9,0)</f>
+        <v>0.21494665008819361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="66">
+        <v>12262</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67">
+        <v>307</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66">
+        <v>11905</v>
+      </c>
+      <c r="G10" s="67">
+        <v>956</v>
+      </c>
+      <c r="H10" s="67">
+        <v>24</v>
+      </c>
+      <c r="I10" s="66">
+        <v>62942</v>
+      </c>
+      <c r="J10" s="66">
+        <v>4909</v>
+      </c>
+      <c r="K10" s="68"/>
+      <c r="L10" s="69">
+        <f>IFERROR(B10/I10,0)</f>
+        <v>0.19481427345810429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B11" s="66">
         <v>5172</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="C11" s="67"/>
+      <c r="D11" s="67">
         <v>150</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1">
+      <c r="E11" s="67"/>
+      <c r="F11" s="66">
         <v>4982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G11" s="67">
         <v>935</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H11" s="67">
         <v>27</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I11" s="66">
         <v>26875</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J11" s="66">
         <v>4859</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6906</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>206</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1">
-        <v>6650</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1928</v>
-      </c>
-      <c r="H8" s="2">
-        <v>58</v>
-      </c>
-      <c r="I8" s="1">
-        <v>26686</v>
-      </c>
-      <c r="J8" s="1">
-        <v>7451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="K11" s="68"/>
+      <c r="L11" s="69">
+        <f>IFERROR(B11/I11,0)</f>
+        <v>0.19244651162790696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="66">
+        <v>4944</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67">
+        <v>139</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="66">
+        <v>4791</v>
+      </c>
+      <c r="G12" s="67">
+        <v>745</v>
+      </c>
+      <c r="H12" s="67">
+        <v>21</v>
+      </c>
+      <c r="I12" s="66">
+        <v>26191</v>
+      </c>
+      <c r="J12" s="66">
+        <v>3946</v>
+      </c>
+      <c r="K12" s="68"/>
+      <c r="L12" s="69">
+        <f>IFERROR(B12/I12,0)</f>
+        <v>0.18876713374823412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="67">
+        <v>112</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67">
+        <v>4</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67">
+        <v>85</v>
+      </c>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67">
+        <v>605</v>
+      </c>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="69">
+        <f>IFERROR(B13/I13,0)</f>
+        <v>0.18512396694214875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="66">
+        <v>13837</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67">
+        <v>260</v>
+      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66">
+        <v>13567</v>
+      </c>
+      <c r="G14" s="66">
+        <v>2026</v>
+      </c>
+      <c r="H14" s="67">
+        <v>38</v>
+      </c>
+      <c r="I14" s="66">
+        <v>76429</v>
+      </c>
+      <c r="J14" s="66">
+        <v>11190</v>
+      </c>
+      <c r="K14" s="68"/>
+      <c r="L14" s="69">
+        <f>IFERROR(B14/I14,0)</f>
+        <v>0.18104384461395542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="67">
         <v>43</v>
       </c>
-      <c r="B9" s="2">
-        <v>783</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <v>697</v>
-      </c>
-      <c r="G9" s="2">
-        <v>825</v>
-      </c>
-      <c r="H9" s="2">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1">
-        <v>7632</v>
-      </c>
-      <c r="J9" s="1">
-        <v>8038</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="21.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="67">
+        <v>1</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67">
+        <v>8</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67">
+        <v>266</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="69">
+        <f>IFERROR(B15/I15,0)</f>
+        <v>0.16165413533834586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="66">
+        <v>13127</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67">
+        <v>179</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="66">
+        <v>12872</v>
+      </c>
+      <c r="G16" s="66">
+        <v>1026</v>
+      </c>
+      <c r="H16" s="67">
+        <v>14</v>
+      </c>
+      <c r="I16" s="66">
+        <v>83854</v>
+      </c>
+      <c r="J16" s="66">
+        <v>6556</v>
+      </c>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69">
+        <f>IFERROR(B16/I16,0)</f>
+        <v>0.15654590120924464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B17" s="1">
         <v>1097</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <v>815</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1603</v>
-      </c>
-      <c r="H10" s="2">
-        <v>35</v>
-      </c>
-      <c r="I10" s="1">
-        <v>7453</v>
-      </c>
-      <c r="J10" s="1">
-        <v>10888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1">
-        <v>13629</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>254</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1">
-        <v>13275</v>
-      </c>
-      <c r="G11" s="2">
-        <v>662</v>
-      </c>
-      <c r="H11" s="2">
-        <v>12</v>
-      </c>
-      <c r="I11" s="1">
-        <v>126048</v>
-      </c>
-      <c r="J11" s="1">
-        <v>6119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>7558</v>
-      </c>
-      <c r="C12" s="4">
-        <v>244</v>
-      </c>
-      <c r="D12" s="2">
-        <v>294</v>
-      </c>
-      <c r="E12" s="3">
-        <v>65</v>
-      </c>
-      <c r="F12" s="1">
-        <v>7233</v>
-      </c>
-      <c r="G12" s="2">
-        <v>734</v>
-      </c>
-      <c r="H12" s="2">
-        <v>29</v>
-      </c>
-      <c r="I12" s="1">
-        <v>31274</v>
-      </c>
-      <c r="J12" s="1">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="2">
-        <v>112</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>85</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
-        <v>605</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="2">
-        <v>387</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <v>293</v>
-      </c>
-      <c r="G14" s="2">
-        <v>272</v>
-      </c>
-      <c r="H14" s="2">
-        <v>4</v>
-      </c>
-      <c r="I14" s="1">
-        <v>13665</v>
-      </c>
-      <c r="J14" s="1">
-        <v>9610</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1170</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1">
-        <v>1157</v>
-      </c>
-      <c r="G15" s="2">
-        <v>693</v>
-      </c>
-      <c r="H15" s="2">
-        <v>8</v>
-      </c>
-      <c r="I15" s="1">
-        <v>11246</v>
-      </c>
-      <c r="J15" s="1">
-        <v>6663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1">
-        <v>12262</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <v>307</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1">
-        <v>11905</v>
-      </c>
-      <c r="G16" s="2">
-        <v>956</v>
-      </c>
-      <c r="H16" s="2">
-        <v>24</v>
-      </c>
-      <c r="I16" s="1">
-        <v>62942</v>
-      </c>
-      <c r="J16" s="1">
-        <v>4909</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4944</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="1">
-        <v>4791</v>
-      </c>
-      <c r="G17" s="2">
-        <v>745</v>
+      <c r="F17" s="2">
+        <v>815</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1603</v>
       </c>
       <c r="H17" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I17" s="1">
-        <v>26191</v>
+        <v>7453</v>
       </c>
       <c r="J17" s="1">
-        <v>3946</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10888</v>
+      </c>
+      <c r="L17" s="42">
+        <f>IFERROR(B17/I17,0)</f>
+        <v>0.14718905138870253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="2">
-        <v>946</v>
+        <v>26</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4045</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2">
-        <v>853</v>
+      <c r="F18" s="1">
+        <v>3770</v>
       </c>
       <c r="G18" s="2">
-        <v>302</v>
+        <v>674</v>
       </c>
       <c r="H18" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I18" s="1">
-        <v>11599</v>
+        <v>29617</v>
       </c>
       <c r="J18" s="1">
-        <v>3703</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4933</v>
+      </c>
+      <c r="L18" s="42">
+        <f>IFERROR(B18/I18,0)</f>
+        <v>0.13657696593172841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="2">
-        <v>845</v>
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2006</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2">
-        <v>820</v>
+      <c r="F19" s="1">
+        <v>1934</v>
       </c>
       <c r="G19" s="2">
-        <v>291</v>
+        <v>412</v>
       </c>
       <c r="H19" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I19" s="1">
-        <v>9084</v>
+        <v>14765</v>
       </c>
       <c r="J19" s="1">
-        <v>3123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3035</v>
+      </c>
+      <c r="L19" s="42">
+        <f>IFERROR(B19/I19,0)</f>
+        <v>0.13586183542160515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1">
-        <v>1008</v>
+        <v>1082</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2">
-        <v>643</v>
-      </c>
-      <c r="G20" s="2">
-        <v>227</v>
+      <c r="F20" s="1">
+        <v>1045</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1024</v>
       </c>
       <c r="H20" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I20" s="1">
-        <v>19955</v>
+        <v>8481</v>
       </c>
       <c r="J20" s="1">
-        <v>4494</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8027</v>
+      </c>
+      <c r="L20" s="42">
+        <f>IFERROR(B20/I20,0)</f>
+        <v>0.12757929489446998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>14867</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>16363</v>
+      </c>
+      <c r="C21" s="4">
+        <v>344</v>
+      </c>
       <c r="D21" s="2">
-        <v>512</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7</v>
+      </c>
       <c r="F21" s="1">
-        <v>14305</v>
-      </c>
-      <c r="G21" s="1">
-        <v>3188</v>
+        <v>15076</v>
+      </c>
+      <c r="G21" s="2">
+        <v>418</v>
       </c>
       <c r="H21" s="2">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>69166</v>
+        <v>129700</v>
       </c>
       <c r="J21" s="1">
-        <v>14831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3313</v>
+      </c>
+      <c r="L21" s="42">
+        <f>IFERROR(B21/I21,0)</f>
+        <v>0.1261603700848111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="2">
-        <v>499</v>
+        <v>29</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2878</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
+        <v>54</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1">
+        <v>2822</v>
+      </c>
+      <c r="G22" s="2">
+        <v>342</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1">
+        <v>24521</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2914</v>
+      </c>
+      <c r="L22" s="42">
+        <f>IFERROR(B22/I22,0)</f>
+        <v>0.11736878593858326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="50">
+        <v>13629</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51">
+        <v>254</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="50">
+        <v>13275</v>
+      </c>
+      <c r="G23" s="51">
+        <v>662</v>
+      </c>
+      <c r="H23" s="51">
+        <v>12</v>
+      </c>
+      <c r="I23" s="50">
+        <v>126048</v>
+      </c>
+      <c r="J23" s="50">
+        <v>6119</v>
+      </c>
+      <c r="K23" s="52"/>
+      <c r="L23" s="53">
+        <f>IFERROR(B23/I23,0)</f>
+        <v>0.10812547600913938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="50">
+        <v>2232</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51">
+        <v>48</v>
+      </c>
+      <c r="E24" s="51"/>
+      <c r="F24" s="50">
+        <v>2184</v>
+      </c>
+      <c r="G24" s="51">
+        <v>450</v>
+      </c>
+      <c r="H24" s="51">
         <v>10</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
+      <c r="I24" s="50">
+        <v>21384</v>
+      </c>
+      <c r="J24" s="50">
+        <v>4315</v>
+      </c>
+      <c r="K24" s="52"/>
+      <c r="L24" s="53">
+        <f>IFERROR(B24/I24,0)</f>
+        <v>0.10437710437710437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="50">
+        <v>1170</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51">
+        <v>13</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="50">
+        <v>1157</v>
+      </c>
+      <c r="G25" s="51">
+        <v>693</v>
+      </c>
+      <c r="H25" s="51">
+        <v>8</v>
+      </c>
+      <c r="I25" s="50">
+        <v>11246</v>
+      </c>
+      <c r="J25" s="50">
+        <v>6663</v>
+      </c>
+      <c r="K25" s="52"/>
+      <c r="L25" s="53">
+        <f>IFERROR(B25/I25,0)</f>
+        <v>0.10403699093010849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="51">
+        <v>513</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51">
+        <v>21</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51">
+        <v>488</v>
+      </c>
+      <c r="G26" s="51">
+        <v>151</v>
+      </c>
+      <c r="H26" s="51">
+        <v>6</v>
+      </c>
+      <c r="I26" s="50">
+        <v>4951</v>
+      </c>
+      <c r="J26" s="50">
+        <v>1462</v>
+      </c>
+      <c r="K26" s="52"/>
+      <c r="L26" s="53">
+        <f>IFERROR(B26/I26,0)</f>
+        <v>0.10361543122601495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="51">
+        <v>783</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51">
+        <v>15</v>
+      </c>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51">
+        <v>697</v>
+      </c>
+      <c r="G27" s="51">
+        <v>825</v>
+      </c>
+      <c r="H27" s="51">
+        <v>16</v>
+      </c>
+      <c r="I27" s="50">
+        <v>7632</v>
+      </c>
+      <c r="J27" s="50">
+        <v>8038</v>
+      </c>
+      <c r="K27" s="52"/>
+      <c r="L27" s="53">
+        <f>IFERROR(B27/I27,0)</f>
+        <v>0.10259433962264151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="50">
+        <v>2722</v>
+      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51">
+        <v>52</v>
+      </c>
+      <c r="E28" s="51"/>
+      <c r="F28" s="50">
+        <v>2658</v>
+      </c>
+      <c r="G28" s="51">
+        <v>447</v>
+      </c>
+      <c r="H28" s="51">
+        <v>9</v>
+      </c>
+      <c r="I28" s="50">
+        <v>27173</v>
+      </c>
+      <c r="J28" s="50">
+        <v>4462</v>
+      </c>
+      <c r="K28" s="52"/>
+      <c r="L28" s="53">
+        <f>IFERROR(B28/I28,0)</f>
+        <v>0.10017296581165128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="50">
+        <v>8088</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51">
+        <v>151</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="50">
+        <v>7179</v>
+      </c>
+      <c r="G29" s="51">
+        <v>290</v>
+      </c>
+      <c r="H29" s="51">
+        <v>5</v>
+      </c>
+      <c r="I29" s="50">
+        <v>85357</v>
+      </c>
+      <c r="J29" s="50">
+        <v>3061</v>
+      </c>
+      <c r="K29" s="52"/>
+      <c r="L29" s="53">
+        <f>IFERROR(B29/I29,0)</f>
+        <v>9.4754970301205527E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="50">
+        <v>1953</v>
+      </c>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51">
+        <v>46</v>
+      </c>
+      <c r="E30" s="51"/>
+      <c r="F30" s="50">
+        <v>1871</v>
+      </c>
+      <c r="G30" s="51">
+        <v>668</v>
+      </c>
+      <c r="H30" s="51">
+        <v>16</v>
+      </c>
+      <c r="I30" s="50">
+        <v>20756</v>
+      </c>
+      <c r="J30" s="50">
+        <v>7101</v>
+      </c>
+      <c r="K30" s="52"/>
+      <c r="L30" s="53">
+        <f>IFERROR(B30/I30,0)</f>
+        <v>9.4093274233956442E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="51">
+        <v>845</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51">
+        <v>25</v>
+      </c>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51">
+        <v>820</v>
+      </c>
+      <c r="G31" s="51">
+        <v>291</v>
+      </c>
+      <c r="H31" s="51">
+        <v>9</v>
+      </c>
+      <c r="I31" s="50">
+        <v>9084</v>
+      </c>
+      <c r="J31" s="50">
+        <v>3123</v>
+      </c>
+      <c r="K31" s="52"/>
+      <c r="L31" s="53">
+        <f>IFERROR(B31/I31,0)</f>
+        <v>9.3020695728753849E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="50">
+        <v>4450</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51">
+        <v>142</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="50">
+        <v>4308</v>
+      </c>
+      <c r="G32" s="51">
+        <v>382</v>
+      </c>
+      <c r="H32" s="51">
+        <v>12</v>
+      </c>
+      <c r="I32" s="50">
+        <v>48378</v>
+      </c>
+      <c r="J32" s="50">
+        <v>4156</v>
+      </c>
+      <c r="K32" s="52"/>
+      <c r="L32" s="53">
+        <f>IFERROR(B32/I32,0)</f>
+        <v>9.1983959651081068E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="50">
+        <v>8384</v>
+      </c>
+      <c r="C33" s="54">
+        <v>58</v>
+      </c>
+      <c r="D33" s="51">
+        <v>381</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="50">
+        <v>7164</v>
+      </c>
+      <c r="G33" s="50">
+        <v>1149</v>
+      </c>
+      <c r="H33" s="51">
+        <v>52</v>
+      </c>
+      <c r="I33" s="50">
+        <v>91375</v>
+      </c>
+      <c r="J33" s="50">
+        <v>12527</v>
+      </c>
+      <c r="K33" s="52"/>
+      <c r="L33" s="53">
+        <f>IFERROR(B33/I33,0)</f>
+        <v>9.1753761969904243E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="50">
+        <v>1738</v>
+      </c>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51">
+        <v>51</v>
+      </c>
+      <c r="E34" s="51"/>
+      <c r="F34" s="50">
+        <v>1687</v>
+      </c>
+      <c r="G34" s="51">
+        <v>582</v>
+      </c>
+      <c r="H34" s="51">
+        <v>17</v>
+      </c>
+      <c r="I34" s="50">
+        <v>20370</v>
+      </c>
+      <c r="J34" s="50">
+        <v>6816</v>
+      </c>
+      <c r="K34" s="52"/>
+      <c r="L34" s="53">
+        <f>IFERROR(B34/I34,0)</f>
+        <v>8.5321551300932746E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="50">
+        <v>2440</v>
+      </c>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51">
+        <v>77</v>
+      </c>
+      <c r="E35" s="51"/>
+      <c r="F35" s="50">
+        <v>2361</v>
+      </c>
+      <c r="G35" s="51">
+        <v>422</v>
+      </c>
+      <c r="H35" s="51">
+        <v>13</v>
+      </c>
+      <c r="I35" s="50">
+        <v>29014</v>
+      </c>
+      <c r="J35" s="50">
+        <v>5021</v>
+      </c>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53">
+        <f>IFERROR(B35/I35,0)</f>
+        <v>8.4097332322327148E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="51">
+        <v>715</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51">
+        <v>9</v>
+      </c>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51">
+        <v>555</v>
+      </c>
+      <c r="G36" s="51">
+        <v>532</v>
+      </c>
+      <c r="H36" s="51">
+        <v>7</v>
+      </c>
+      <c r="I36" s="50">
+        <v>8734</v>
+      </c>
+      <c r="J36" s="50">
+        <v>6500</v>
+      </c>
+      <c r="K36" s="52"/>
+      <c r="L36" s="53">
+        <f>IFERROR(B36/I36,0)</f>
+        <v>8.1863979848866494E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="51">
+        <v>543</v>
+      </c>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51">
+        <v>23</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51">
+        <v>520</v>
+      </c>
+      <c r="G37" s="51">
+        <v>869</v>
+      </c>
+      <c r="H37" s="51">
+        <v>37</v>
+      </c>
+      <c r="I37" s="50">
+        <v>6633</v>
+      </c>
+      <c r="J37" s="50">
+        <v>10613</v>
+      </c>
+      <c r="K37" s="52"/>
+      <c r="L37" s="53">
+        <f>IFERROR(B37/I37,0)</f>
+        <v>8.1863410221619179E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="51">
+        <v>946</v>
+      </c>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51">
+        <v>25</v>
+      </c>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51">
+        <v>853</v>
+      </c>
+      <c r="G38" s="51">
+        <v>302</v>
+      </c>
+      <c r="H38" s="51">
+        <v>8</v>
+      </c>
+      <c r="I38" s="50">
+        <v>11599</v>
+      </c>
+      <c r="J38" s="50">
+        <v>3703</v>
+      </c>
+      <c r="K38" s="52"/>
+      <c r="L38" s="53">
+        <f>IFERROR(B38/I38,0)</f>
+        <v>8.1558755065091817E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="50">
+        <v>3802</v>
+      </c>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51">
+        <v>65</v>
+      </c>
+      <c r="E39" s="51"/>
+      <c r="F39" s="50">
+        <v>3381</v>
+      </c>
+      <c r="G39" s="51">
+        <v>572</v>
+      </c>
+      <c r="H39" s="51">
+        <v>10</v>
+      </c>
+      <c r="I39" s="50">
+        <v>47350</v>
+      </c>
+      <c r="J39" s="50">
+        <v>7119</v>
+      </c>
+      <c r="K39" s="52"/>
+      <c r="L39" s="53">
+        <f>IFERROR(B39/I39,0)</f>
+        <v>8.0295670538542765E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="51">
+        <v>499</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51">
+        <v>10</v>
+      </c>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51">
         <v>331</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G40" s="51">
         <v>374</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H40" s="51">
         <v>8</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I40" s="50">
         <v>6544</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J40" s="50">
         <v>4910</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="1">
-        <v>4045</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2">
-        <v>91</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1">
-        <v>3770</v>
-      </c>
-      <c r="G23" s="2">
-        <v>674</v>
-      </c>
-      <c r="H23" s="2">
-        <v>15</v>
-      </c>
-      <c r="I23" s="1">
-        <v>29617</v>
-      </c>
-      <c r="J23" s="1">
-        <v>4933</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1">
-        <v>13837</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
-        <v>260</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1">
-        <v>13567</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2026</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="K40" s="52"/>
+      <c r="L40" s="53">
+        <f>IFERROR(B40/I40,0)</f>
+        <v>7.6253056234718827E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="50">
+        <v>2456</v>
+      </c>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51">
+        <v>65</v>
+      </c>
+      <c r="E41" s="51"/>
+      <c r="F41" s="50">
+        <v>2371</v>
+      </c>
+      <c r="G41" s="51">
+        <v>354</v>
+      </c>
+      <c r="H41" s="51">
+        <v>9</v>
+      </c>
+      <c r="I41" s="50">
+        <v>32534</v>
+      </c>
+      <c r="J41" s="50">
+        <v>4683</v>
+      </c>
+      <c r="K41" s="52"/>
+      <c r="L41" s="53">
+        <f>IFERROR(B41/I41,0)</f>
+        <v>7.5490256347206006E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="50">
+        <v>3039</v>
+      </c>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51">
+        <v>48</v>
+      </c>
+      <c r="E42" s="51"/>
+      <c r="F42" s="50">
+        <v>2905</v>
+      </c>
+      <c r="G42" s="51">
+        <v>299</v>
+      </c>
+      <c r="H42" s="51">
+        <v>5</v>
+      </c>
+      <c r="I42" s="50">
+        <v>40726</v>
+      </c>
+      <c r="J42" s="50">
+        <v>4010</v>
+      </c>
+      <c r="K42" s="52"/>
+      <c r="L42" s="53">
+        <f>IFERROR(B42/I42,0)</f>
+        <v>7.4620635466286889E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="51">
+        <v>927</v>
+      </c>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51">
+        <v>16</v>
+      </c>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51">
+        <v>772</v>
+      </c>
+      <c r="G43" s="51">
+        <v>310</v>
+      </c>
+      <c r="H43" s="51">
+        <v>5</v>
+      </c>
+      <c r="I43" s="50">
+        <v>13264</v>
+      </c>
+      <c r="J43" s="50">
+        <v>4435</v>
+      </c>
+      <c r="K43" s="52"/>
+      <c r="L43" s="53">
+        <f>IFERROR(B43/I43,0)</f>
+        <v>6.9888419782870928E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="51">
+        <v>412</v>
+      </c>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51">
+        <v>8</v>
+      </c>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51">
+        <v>404</v>
+      </c>
+      <c r="G44" s="51">
+        <v>216</v>
+      </c>
+      <c r="H44" s="51">
+        <v>4</v>
+      </c>
+      <c r="I44" s="50">
+        <v>6883</v>
+      </c>
+      <c r="J44" s="50">
+        <v>3614</v>
+      </c>
+      <c r="K44" s="52"/>
+      <c r="L44" s="53">
+        <f>IFERROR(B44/I44,0)</f>
+        <v>5.9857620223739645E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="51">
+        <v>212</v>
+      </c>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51">
+        <v>160</v>
+      </c>
+      <c r="G45" s="51">
+        <v>364</v>
+      </c>
+      <c r="H45" s="51"/>
+      <c r="I45" s="50">
+        <v>3929</v>
+      </c>
+      <c r="J45" s="50">
+        <v>6753</v>
+      </c>
+      <c r="K45" s="52"/>
+      <c r="L45" s="53">
+        <f>IFERROR(B45/I45,0)</f>
+        <v>5.395775006362942E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="50">
+        <v>1132</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51">
+        <v>29</v>
+      </c>
+      <c r="E46" s="51"/>
+      <c r="F46" s="50">
+        <v>1103</v>
+      </c>
+      <c r="G46" s="51">
+        <v>277</v>
+      </c>
+      <c r="H46" s="51">
+        <v>7</v>
+      </c>
+      <c r="I46" s="50">
+        <v>21801</v>
+      </c>
+      <c r="J46" s="50">
+        <v>5341</v>
+      </c>
+      <c r="K46" s="52"/>
+      <c r="L46" s="53">
+        <f>IFERROR(B46/I46,0)</f>
+        <v>5.1924223659465162E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="1">
-        <v>76429</v>
-      </c>
-      <c r="J24" s="1">
-        <v>11190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1">
-        <v>17221</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
-        <v>727</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1">
-        <v>16425</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1729</v>
-      </c>
-      <c r="H25" s="2">
-        <v>73</v>
-      </c>
-      <c r="I25" s="1">
-        <v>45748</v>
-      </c>
-      <c r="J25" s="1">
-        <v>4594</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+      <c r="B47" s="50">
+        <v>1008</v>
+      </c>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51">
+        <v>59</v>
+      </c>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51">
+        <v>643</v>
+      </c>
+      <c r="G47" s="51">
+        <v>227</v>
+      </c>
+      <c r="H47" s="51">
+        <v>13</v>
+      </c>
+      <c r="I47" s="50">
+        <v>19955</v>
+      </c>
+      <c r="J47" s="50">
+        <v>4494</v>
+      </c>
+      <c r="K47" s="52"/>
+      <c r="L47" s="53">
+        <f>IFERROR(B47/I47,0)</f>
+        <v>5.0513655725382113E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="50">
+        <v>1675</v>
+      </c>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51">
+        <v>13</v>
+      </c>
+      <c r="E48" s="51"/>
+      <c r="F48" s="50">
+        <v>1636</v>
+      </c>
+      <c r="G48" s="51">
+        <v>550</v>
+      </c>
+      <c r="H48" s="51">
+        <v>4</v>
+      </c>
+      <c r="I48" s="50">
+        <v>33394</v>
+      </c>
+      <c r="J48" s="50">
+        <v>10966</v>
+      </c>
+      <c r="K48" s="52"/>
+      <c r="L48" s="53">
+        <f>IFERROR(B48/I48,0)</f>
+        <v>5.0158711145714796E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="51">
+        <v>288</v>
+      </c>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51">
+        <v>4</v>
+      </c>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51">
+        <v>193</v>
+      </c>
+      <c r="G49" s="51">
+        <v>333</v>
+      </c>
+      <c r="H49" s="51">
+        <v>5</v>
+      </c>
+      <c r="I49" s="50">
+        <v>6020</v>
+      </c>
+      <c r="J49" s="50">
+        <v>6965</v>
+      </c>
+      <c r="K49" s="52"/>
+      <c r="L49" s="53">
+        <f>IFERROR(B49/I49,0)</f>
+        <v>4.7840531561461792E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="51">
+        <v>319</v>
+      </c>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51">
+        <v>6</v>
+      </c>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51">
+        <v>281</v>
+      </c>
+      <c r="G50" s="51">
+        <v>306</v>
+      </c>
+      <c r="H50" s="51">
+        <v>6</v>
+      </c>
+      <c r="I50" s="50">
+        <v>6985</v>
+      </c>
+      <c r="J50" s="50">
+        <v>6705</v>
+      </c>
+      <c r="K50" s="52"/>
+      <c r="L50" s="53">
+        <f>IFERROR(B50/I50,0)</f>
+        <v>4.5669291338582677E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B51" s="51">
         <v>986</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
+      <c r="C51" s="51"/>
+      <c r="D51" s="51">
         <v>30</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2">
+      <c r="E51" s="51"/>
+      <c r="F51" s="51">
         <v>486</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G51" s="51">
         <v>178</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H51" s="51">
         <v>5</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I51" s="50">
         <v>28128</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J51" s="50">
         <v>5089</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1738</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2">
-        <v>51</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1">
-        <v>1687</v>
-      </c>
-      <c r="G27" s="2">
-        <v>582</v>
-      </c>
-      <c r="H27" s="2">
-        <v>17</v>
-      </c>
-      <c r="I27" s="1">
-        <v>20370</v>
-      </c>
-      <c r="J27" s="1">
-        <v>6816</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2722</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2">
+      <c r="K51" s="52"/>
+      <c r="L51" s="53">
+        <f>IFERROR(B51/I51,0)</f>
+        <v>3.5054038680318547E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="51">
+        <v>345</v>
+      </c>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51">
+        <v>4</v>
+      </c>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51">
+        <v>341</v>
+      </c>
+      <c r="G52" s="51">
+        <v>189</v>
+      </c>
+      <c r="H52" s="51">
+        <v>2</v>
+      </c>
+      <c r="I52" s="50">
+        <v>9940</v>
+      </c>
+      <c r="J52" s="50">
+        <v>5435</v>
+      </c>
+      <c r="K52" s="52"/>
+      <c r="L52" s="53">
+        <f>IFERROR(B52/I52,0)</f>
+        <v>3.470824949698189E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="51">
+        <v>686</v>
+      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51">
+        <v>12</v>
+      </c>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51">
+        <v>620</v>
+      </c>
+      <c r="G53" s="51">
+        <v>328</v>
+      </c>
+      <c r="H53" s="51">
+        <v>6</v>
+      </c>
+      <c r="I53" s="50">
+        <v>21825</v>
+      </c>
+      <c r="J53" s="50">
+        <v>10430</v>
+      </c>
+      <c r="K53" s="52"/>
+      <c r="L53" s="53">
+        <f>IFERROR(B53/I53,0)</f>
+        <v>3.1431844215349371E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="51">
+        <v>225</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51">
+        <v>3</v>
+      </c>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51">
+        <v>148</v>
+      </c>
+      <c r="G54" s="51">
+        <v>299</v>
+      </c>
+      <c r="H54" s="51">
+        <v>4</v>
+      </c>
+      <c r="I54" s="50">
+        <v>7213</v>
+      </c>
+      <c r="J54" s="50">
+        <v>9589</v>
+      </c>
+      <c r="K54" s="52"/>
+      <c r="L54" s="53">
+        <f>IFERROR(B54/I54,0)</f>
+        <v>3.1193678081242203E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1">
-        <v>2658</v>
-      </c>
-      <c r="G28" s="2">
-        <v>447</v>
-      </c>
-      <c r="H28" s="2">
-        <v>9</v>
-      </c>
-      <c r="I28" s="1">
-        <v>27173</v>
-      </c>
-      <c r="J28" s="1">
-        <v>4462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="2">
-        <v>319</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
+      <c r="B55" s="51">
+        <v>191</v>
+      </c>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51">
         <v>6</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2">
-        <v>281</v>
-      </c>
-      <c r="G29" s="2">
-        <v>306</v>
-      </c>
-      <c r="H29" s="2">
-        <v>6</v>
-      </c>
-      <c r="I29" s="1">
-        <v>6985</v>
-      </c>
-      <c r="J29" s="1">
-        <v>6705</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="2">
-        <v>412</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
+      <c r="E55" s="51"/>
+      <c r="F55" s="51">
+        <v>170</v>
+      </c>
+      <c r="G55" s="51">
+        <v>259</v>
+      </c>
+      <c r="H55" s="51">
         <v>8</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2">
-        <v>404</v>
-      </c>
-      <c r="G30" s="2">
-        <v>216</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="I55" s="50">
+        <v>6284</v>
+      </c>
+      <c r="J55" s="50">
+        <v>8509</v>
+      </c>
+      <c r="K55" s="52"/>
+      <c r="L55" s="53">
+        <f>IFERROR(B55/I55,0)</f>
+        <v>3.0394653087205601E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="56">
+        <v>387</v>
+      </c>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56">
+        <v>5</v>
+      </c>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56">
+        <v>293</v>
+      </c>
+      <c r="G56" s="56">
+        <v>272</v>
+      </c>
+      <c r="H56" s="56">
         <v>4</v>
       </c>
-      <c r="I30" s="1">
-        <v>6883</v>
-      </c>
-      <c r="J30" s="1">
-        <v>3614</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1953</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
-        <v>46</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="1">
-        <v>1871</v>
-      </c>
-      <c r="G31" s="2">
-        <v>668</v>
-      </c>
-      <c r="H31" s="2">
-        <v>16</v>
-      </c>
-      <c r="I31" s="1">
-        <v>20756</v>
-      </c>
-      <c r="J31" s="1">
-        <v>7101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="2">
-        <v>715</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2">
-        <v>555</v>
-      </c>
-      <c r="G32" s="2">
-        <v>532</v>
-      </c>
-      <c r="H32" s="2">
-        <v>7</v>
-      </c>
-      <c r="I32" s="1">
-        <v>8734</v>
-      </c>
-      <c r="J32" s="1">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="1">
-        <v>41090</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1">
-        <v>1003</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="1">
-        <v>39995</v>
-      </c>
-      <c r="G33" s="1">
-        <v>4626</v>
-      </c>
-      <c r="H33" s="2">
-        <v>113</v>
-      </c>
-      <c r="I33" s="1">
-        <v>89032</v>
-      </c>
-      <c r="J33" s="1">
-        <v>10024</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="2">
-        <v>686</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <v>12</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2">
-        <v>620</v>
-      </c>
-      <c r="G34" s="2">
-        <v>328</v>
-      </c>
-      <c r="H34" s="2">
-        <v>6</v>
-      </c>
-      <c r="I34" s="1">
-        <v>21825</v>
-      </c>
-      <c r="J34" s="1">
-        <v>10430</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="1">
-        <v>131916</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1">
-        <v>4758</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="1">
-        <v>113792</v>
-      </c>
-      <c r="G35" s="1">
-        <v>6724</v>
-      </c>
-      <c r="H35" s="2">
-        <v>243</v>
-      </c>
-      <c r="I35" s="1">
-        <v>320811</v>
-      </c>
-      <c r="J35" s="1">
-        <v>16353</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="1">
-        <v>3039</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
-        <v>48</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="1">
-        <v>2905</v>
-      </c>
-      <c r="G36" s="2">
-        <v>299</v>
-      </c>
-      <c r="H36" s="2">
-        <v>5</v>
-      </c>
-      <c r="I36" s="1">
-        <v>40726</v>
-      </c>
-      <c r="J36" s="1">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="2">
-        <v>225</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2">
-        <v>148</v>
-      </c>
-      <c r="G37" s="2">
-        <v>299</v>
-      </c>
-      <c r="H37" s="2">
-        <v>4</v>
-      </c>
-      <c r="I37" s="1">
-        <v>7213</v>
-      </c>
-      <c r="J37" s="1">
-        <v>9589</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="21.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="2">
-        <v>8</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2">
-        <v>7</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2">
-        <v>33</v>
-      </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="1">
-        <v>4450</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2">
-        <v>142</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="1">
-        <v>4308</v>
-      </c>
-      <c r="G39" s="2">
-        <v>382</v>
-      </c>
-      <c r="H39" s="2">
-        <v>12</v>
-      </c>
-      <c r="I39" s="1">
-        <v>48378</v>
-      </c>
-      <c r="J39" s="1">
-        <v>4156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1327</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2">
-        <v>51</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2">
-        <v>754</v>
-      </c>
-      <c r="G40" s="2">
-        <v>339</v>
-      </c>
-      <c r="H40" s="2">
-        <v>13</v>
-      </c>
-      <c r="I40" s="1">
-        <v>2751</v>
-      </c>
-      <c r="J40" s="2">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1132</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2">
-        <v>29</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="1">
-        <v>1103</v>
-      </c>
-      <c r="G41" s="2">
-        <v>277</v>
-      </c>
-      <c r="H41" s="2">
-        <v>7</v>
-      </c>
-      <c r="I41" s="1">
-        <v>21801</v>
-      </c>
-      <c r="J41" s="1">
-        <v>5341</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="1">
-        <v>13127</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2">
-        <v>179</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="1">
-        <v>12872</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1026</v>
-      </c>
-      <c r="H42" s="2">
-        <v>14</v>
-      </c>
-      <c r="I42" s="1">
-        <v>83854</v>
-      </c>
-      <c r="J42" s="1">
-        <v>6556</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="2">
-        <v>513</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2">
-        <v>21</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2">
-        <v>488</v>
-      </c>
-      <c r="G43" s="2">
-        <v>151</v>
-      </c>
-      <c r="H43" s="2">
-        <v>6</v>
-      </c>
-      <c r="I43" s="1">
-        <v>4951</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="1">
-        <v>1082</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2">
-        <v>27</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="1">
-        <v>1045</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1024</v>
-      </c>
-      <c r="H44" s="2">
-        <v>26</v>
-      </c>
-      <c r="I44" s="1">
-        <v>8481</v>
-      </c>
-      <c r="J44" s="1">
-        <v>8027</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2232</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2">
-        <v>48</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="1">
-        <v>2184</v>
-      </c>
-      <c r="G45" s="2">
-        <v>450</v>
-      </c>
-      <c r="H45" s="2">
-        <v>10</v>
-      </c>
-      <c r="I45" s="1">
-        <v>21384</v>
-      </c>
-      <c r="J45" s="1">
-        <v>4315</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="2">
-        <v>288</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2">
-        <v>4</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2">
-        <v>193</v>
-      </c>
-      <c r="G46" s="2">
-        <v>333</v>
-      </c>
-      <c r="H46" s="2">
-        <v>5</v>
-      </c>
-      <c r="I46" s="1">
-        <v>6020</v>
-      </c>
-      <c r="J46" s="1">
-        <v>6965</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="1">
-        <v>3802</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2">
-        <v>65</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="1">
-        <v>3381</v>
-      </c>
-      <c r="G47" s="2">
-        <v>572</v>
-      </c>
-      <c r="H47" s="2">
-        <v>10</v>
-      </c>
-      <c r="I47" s="1">
-        <v>47350</v>
-      </c>
-      <c r="J47" s="1">
-        <v>7119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="1">
-        <v>8088</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2">
-        <v>151</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="1">
-        <v>7179</v>
-      </c>
-      <c r="G48" s="2">
-        <v>290</v>
-      </c>
-      <c r="H48" s="2">
-        <v>5</v>
-      </c>
-      <c r="I48" s="1">
-        <v>85357</v>
-      </c>
-      <c r="J48" s="1">
-        <v>3061</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="21.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="2">
-        <v>43</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2">
-        <v>8</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2">
-        <v>266</v>
-      </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="1">
-        <v>1675</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2">
-        <v>13</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="1">
-        <v>1636</v>
-      </c>
-      <c r="G50" s="2">
-        <v>550</v>
-      </c>
-      <c r="H50" s="2">
-        <v>4</v>
-      </c>
-      <c r="I50" s="1">
-        <v>33394</v>
-      </c>
-      <c r="J50" s="1">
-        <v>10966</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="2">
-        <v>543</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2">
-        <v>23</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2">
-        <v>520</v>
-      </c>
-      <c r="G51" s="2">
-        <v>869</v>
-      </c>
-      <c r="H51" s="2">
-        <v>37</v>
-      </c>
-      <c r="I51" s="1">
-        <v>6633</v>
-      </c>
-      <c r="J51" s="1">
-        <v>10613</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2878</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2">
-        <v>54</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="1">
-        <v>2822</v>
-      </c>
-      <c r="G52" s="2">
-        <v>342</v>
-      </c>
-      <c r="H52" s="2">
-        <v>6</v>
-      </c>
-      <c r="I52" s="1">
-        <v>24521</v>
-      </c>
-      <c r="J52" s="1">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="1">
-        <v>8384</v>
-      </c>
-      <c r="C53" s="4">
-        <v>58</v>
-      </c>
-      <c r="D53" s="2">
-        <v>381</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="1">
-        <v>7164</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1149</v>
-      </c>
-      <c r="H53" s="2">
-        <v>52</v>
-      </c>
-      <c r="I53" s="1">
-        <v>91375</v>
-      </c>
-      <c r="J53" s="1">
-        <v>12527</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="2">
-        <v>345</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2">
-        <v>4</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2">
-        <v>341</v>
-      </c>
-      <c r="G54" s="2">
-        <v>189</v>
-      </c>
-      <c r="H54" s="2">
-        <v>2</v>
-      </c>
-      <c r="I54" s="1">
-        <v>9940</v>
-      </c>
-      <c r="J54" s="1">
-        <v>5435</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="1">
-        <v>2440</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2">
-        <v>77</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="1">
-        <v>2361</v>
-      </c>
-      <c r="G55" s="2">
-        <v>422</v>
-      </c>
-      <c r="H55" s="2">
-        <v>13</v>
-      </c>
-      <c r="I55" s="1">
-        <v>29014</v>
-      </c>
-      <c r="J55" s="1">
-        <v>5021</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="17">
-        <v>212</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17">
-        <v>160</v>
-      </c>
-      <c r="G56" s="17">
-        <v>364</v>
-      </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="42">
-        <v>3929</v>
-      </c>
-      <c r="J56" s="42">
-        <v>6753</v>
+      <c r="I56" s="57">
+        <v>13665</v>
+      </c>
+      <c r="J56" s="57">
+        <v>9610</v>
+      </c>
+      <c r="K56" s="52"/>
+      <c r="L56" s="53">
+        <f>IFERROR(B56/I56,0)</f>
+        <v>2.8320526893523601E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J55" xr:uid="{F34D6ED7-9B03-416B-AA91-A21E4B380D14}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J56">
-      <sortCondition ref="A1:A55"/>
+  <autoFilter ref="A1:L56" xr:uid="{5D3923D0-CD53-4A52-80E7-BBB17CE7F4A4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
+      <sortCondition descending="1" ref="L1:L56"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="L2:L56">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6855,7 +7278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F85D94-125B-480E-B197-8044C0D76B30}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
